--- a/public/uploads/resultats.xlsx
+++ b/public/uploads/resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6. Mes projets\14.2. Symfony_competition-results\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6DC86-093E-419F-8BBC-C2B72F118E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84AE84D-66BB-42FF-9C5F-455CEF6CA6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="2004" windowWidth="23040" windowHeight="12600" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
+    <workbookView xWindow="4236" yWindow="432" windowWidth="23040" windowHeight="15912" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>00:50:05</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>category_id</t>
+  </si>
+  <si>
+    <t>09:10:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF053B18-101F-47DE-9D22-6266EEF0E94A}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -518,19 +524,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -538,19 +544,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -558,19 +564,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
+        <v>72</v>
+      </c>
+      <c r="E5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -578,16 +584,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -598,16 +604,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -618,16 +624,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -638,19 +644,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -658,19 +664,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -678,21 +684,141 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
     </row>
